--- a/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="246" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1675,7 +1675,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="246" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2022,7 +2022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2238,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="32">
-        <f t="shared" ref="P3:P5" si="1">N3+O3</f>
+        <f t="shared" ref="P3:P7" si="1">N3+O3</f>
         <v>31.5</v>
       </c>
       <c r="Q3" s="19">
@@ -2451,7 +2451,8 @@
         <v>30</v>
       </c>
       <c r="P6" s="32">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>31.3</v>
       </c>
       <c r="Q6" s="19">
         <v>90</v>
@@ -2520,8 +2521,9 @@
       <c r="O7" s="34">
         <v>25</v>
       </c>
-      <c r="P7">
-        <v>47</v>
+      <c r="P7" s="32">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
       </c>
       <c r="Q7" s="19">
         <v>95</v>

--- a/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -217,9 +217,6 @@
     <t>Заполнение полей регистарции</t>
   </si>
   <si>
-    <t>Переход на следуюущий эран после регистарции</t>
-  </si>
-  <si>
     <t>Поиск билета без покупки</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>deleteTicket</t>
+  </si>
+  <si>
+    <t>Переход на следуюущий экран после регистарции</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44742.028894560186" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44743.604929166664" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1335,19 +1335,20 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="transaction rq" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="Главная Welcome страница"/>
         <s v="Вход в систему"/>
         <s v="Переход на страницу поиска билетов"/>
         <s v="Заполнение полей для поиска билета "/>
         <s v="Выбор рейса из найденных "/>
         <s v="Оплата билета"/>
+        <s v="Просмотр квитанций"/>
         <s v="Выход из системы"/>
-        <s v="Просмотр квитанций"/>
         <s v="Отмена бронирования "/>
         <s v="Переход на страницу регистрации"/>
         <s v="Заполнение полей регистарции"/>
-        <s v="Переход на следуюущий эран после регистарции"/>
+        <s v="Переход на следуюущий экран после регистарции"/>
+        <s v="Переход на следуюущий эран после регистарции" u="1"/>
         <s v="Переход на страницу покупки" u="1"/>
         <s v="Перход на страницу регистрации" u="1"/>
       </sharedItems>
@@ -1483,7 +1484,7 @@
   </r>
   <r>
     <s v="Удаление бронирования "/>
-    <x v="7"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="2"/>
     <n v="99"/>
@@ -1543,7 +1544,7 @@
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
-    <x v="6"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="1"/>
     <n v="38"/>
@@ -1583,7 +1584,7 @@
   </r>
   <r>
     <s v="Логин"/>
-    <x v="6"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="1"/>
     <n v="95"/>
@@ -1663,7 +1664,7 @@
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
-    <x v="7"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="1"/>
     <n v="90"/>
@@ -1675,26 +1676,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="16">
         <item x="1"/>
         <item x="4"/>
-        <item x="6"/>
+        <item x="7"/>
         <item x="3"/>
         <item x="5"/>
         <item x="8"/>
-        <item x="7"/>
+        <item x="6"/>
         <item x="0"/>
+        <item m="1" x="14"/>
+        <item x="10"/>
+        <item m="1" x="12"/>
         <item m="1" x="13"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item m="1" x="12"/>
         <item x="2"/>
         <item x="9"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1737,13 +1739,13 @@
       <x v="9"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="12"/>
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -2022,7 +2024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2032,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2044,7 +2046,7 @@
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
@@ -2268,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="55">
         <v>1</v>
@@ -2371,7 +2373,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="24">
         <v>1.7</v>
@@ -2513,7 +2515,7 @@
       </c>
       <c r="K7" s="16"/>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="24">
         <v>1.4</v>
@@ -2552,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="55">
         <v>1</v>
@@ -2566,14 +2568,14 @@
         <v>60</v>
       </c>
       <c r="F8" s="56">
-        <f t="shared" ref="F8" si="11">60/E8*C8</f>
+        <f>60/E8*C8</f>
         <v>1</v>
       </c>
       <c r="G8" s="55">
         <v>20</v>
       </c>
       <c r="H8" s="57">
-        <f t="shared" ref="H8" si="12">D8*F8*G8</f>
+        <f t="shared" ref="H8" si="11">D8*F8*G8</f>
         <v>60</v>
       </c>
       <c r="I8" s="18" t="s">
@@ -2589,28 +2591,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="55">
         <v>1</v>
       </c>
       <c r="D9" s="55">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(A9,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E9" s="55">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
       <c r="F9" s="56">
-        <f>60/E9*C9</f>
+        <f t="shared" ref="F9" si="12">60/E9*C9</f>
         <v>1</v>
       </c>
       <c r="G9" s="55">
         <v>20</v>
       </c>
       <c r="H9" s="57">
-        <f t="shared" si="8"/>
+        <f>D9*F9*G9</f>
         <v>60</v>
       </c>
       <c r="I9" s="18" t="s">
@@ -2687,10 +2689,10 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J11" s="16">
-        <v>31.578947368421055</v>
+        <v>107.4141876430206</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -2723,10 +2725,10 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J12" s="16">
-        <v>107.4141876430206</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -2759,7 +2761,7 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J13" s="16">
         <v>31.578947368421055</v>
@@ -2806,7 +2808,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="55">
         <v>1</v>
@@ -2866,7 +2868,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C17" s="55">
         <v>1</v>
@@ -2923,7 +2925,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>59</v>
@@ -2953,7 +2955,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>0</v>
@@ -2983,10 +2985,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="55">
         <v>1</v>
@@ -3013,7 +3015,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>6</v>
@@ -3043,7 +3045,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>59</v>
@@ -3073,7 +3075,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>0</v>
@@ -3103,10 +3105,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="55">
         <v>1</v>
@@ -3133,7 +3135,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>11</v>
@@ -3163,7 +3165,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>12</v>
@@ -3314,13 +3316,13 @@
     <row r="33" spans="1:9" ht="15" thickBot="1"/>
     <row r="34" spans="1:9">
       <c r="A34" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="61"/>
     </row>
     <row r="35" spans="1:9" ht="108">
       <c r="A35" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>55</v>
@@ -3398,7 +3400,7 @@
     </row>
     <row r="38" spans="1:9" ht="54">
       <c r="A38" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="46">
         <v>305</v>
@@ -3580,7 +3582,7 @@
     </row>
     <row r="45" spans="1:9" ht="54">
       <c r="A45" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="46">
         <v>97</v>
@@ -3634,7 +3636,7 @@
     </row>
     <row r="47" spans="1:9" ht="54">
       <c r="A47" s="47" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B47" s="46">
         <v>97</v>
@@ -3690,7 +3692,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="C50" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -3704,19 +3706,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="C51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
         <v>67</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>69</v>
-      </c>
-      <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>70</v>
       </c>
       <c r="I51" s="36">
         <f>1-B53/H53</f>
@@ -3760,7 +3762,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="39">
         <f>150/3</f>
@@ -3795,7 +3797,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="40">
         <f>30/3</f>
@@ -3829,7 +3831,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="39">
         <f>20/3</f>
@@ -3859,7 +3861,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="39">
         <f>120/3</f>
@@ -3972,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5">
         <v>251</v>
@@ -3991,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="5">
         <v>251</v>
@@ -4010,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5">
         <v>175</v>
@@ -4029,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="5">
         <v>159</v>
@@ -4048,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5">
         <v>73</v>
@@ -4132,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="11">
         <f>5*251</f>
@@ -4152,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="11">
         <f>5*251</f>
@@ -4172,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="11">
         <f>5*175</f>
@@ -4192,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11">
         <f>5*159</f>
@@ -4212,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="11">
         <f>5*73</f>
@@ -4304,7 +4306,7 @@
         <v>0.12754860123281175</v>
       </c>
       <c r="L38" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="15">
         <v>377</v>
@@ -4321,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="11">
         <f>5*251</f>
@@ -4335,7 +4337,7 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L39" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M39" s="15">
         <v>998</v>
@@ -4352,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="11">
         <f>5*251</f>
@@ -4366,7 +4368,7 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L40" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>29</v>
@@ -4383,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="11">
         <f>5*175</f>
@@ -4414,7 +4416,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="11">
         <f>5*159</f>
@@ -4445,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="11">
         <f>5*73</f>
@@ -4459,7 +4461,7 @@
         <v>9.6534653465346509E-2</v>
       </c>
       <c r="L43" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M43" s="15">
         <v>924</v>
@@ -4490,7 +4492,7 @@
         <v>2.68656716417911E-2</v>
       </c>
       <c r="L44" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M44" s="15" t="s">
         <v>29</v>

--- a/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="246" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -217,9 +217,6 @@
     <t>Заполнение полей регистарции</t>
   </si>
   <si>
-    <t>Переход на следуюущий эран после регистарции</t>
-  </si>
-  <si>
     <t>Поиск билета без покупки</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>deleteTicket</t>
+  </si>
+  <si>
+    <t>Переход на следуюущий экран после регистарции</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44742.028894560186" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44743.604929166664" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1335,19 +1335,20 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="transaction rq" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="Главная Welcome страница"/>
         <s v="Вход в систему"/>
         <s v="Переход на страницу поиска билетов"/>
         <s v="Заполнение полей для поиска билета "/>
         <s v="Выбор рейса из найденных "/>
         <s v="Оплата билета"/>
+        <s v="Просмотр квитанций"/>
         <s v="Выход из системы"/>
-        <s v="Просмотр квитанций"/>
         <s v="Отмена бронирования "/>
         <s v="Переход на страницу регистрации"/>
         <s v="Заполнение полей регистарции"/>
-        <s v="Переход на следуюущий эран после регистарции"/>
+        <s v="Переход на следуюущий экран после регистарции"/>
+        <s v="Переход на следуюущий эран после регистарции" u="1"/>
         <s v="Переход на страницу покупки" u="1"/>
         <s v="Перход на страницу регистрации" u="1"/>
       </sharedItems>
@@ -1483,7 +1484,7 @@
   </r>
   <r>
     <s v="Удаление бронирования "/>
-    <x v="7"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="2"/>
     <n v="99"/>
@@ -1543,7 +1544,7 @@
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
-    <x v="6"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="1"/>
     <n v="38"/>
@@ -1583,7 +1584,7 @@
   </r>
   <r>
     <s v="Логин"/>
-    <x v="6"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="1"/>
     <n v="95"/>
@@ -1663,7 +1664,7 @@
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
-    <x v="7"/>
+    <x v="6"/>
     <n v="1"/>
     <n v="1"/>
     <n v="90"/>
@@ -1675,26 +1676,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="246" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="16">
         <item x="1"/>
         <item x="4"/>
-        <item x="6"/>
+        <item x="7"/>
         <item x="3"/>
         <item x="5"/>
         <item x="8"/>
-        <item x="7"/>
+        <item x="6"/>
         <item x="0"/>
+        <item m="1" x="14"/>
+        <item x="10"/>
+        <item m="1" x="12"/>
         <item m="1" x="13"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item m="1" x="12"/>
         <item x="2"/>
         <item x="9"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1737,13 +1739,13 @@
       <x v="9"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="12"/>
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -2032,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2044,7 +2046,7 @@
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
@@ -2238,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="32">
-        <f t="shared" ref="P3:P5" si="1">N3+O3</f>
+        <f t="shared" ref="P3:P7" si="1">N3+O3</f>
         <v>31.5</v>
       </c>
       <c r="Q3" s="19">
@@ -2268,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="55">
         <v>1</v>
@@ -2371,7 +2373,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="24">
         <v>1.7</v>
@@ -2451,7 +2453,8 @@
         <v>30</v>
       </c>
       <c r="P6" s="32">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>31.3</v>
       </c>
       <c r="Q6" s="19">
         <v>90</v>
@@ -2512,7 +2515,7 @@
       </c>
       <c r="K7" s="16"/>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="24">
         <v>1.4</v>
@@ -2520,8 +2523,9 @@
       <c r="O7" s="34">
         <v>25</v>
       </c>
-      <c r="P7">
-        <v>47</v>
+      <c r="P7" s="32">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
       </c>
       <c r="Q7" s="19">
         <v>95</v>
@@ -2550,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="55">
         <v>1</v>
@@ -2564,14 +2568,14 @@
         <v>60</v>
       </c>
       <c r="F8" s="56">
-        <f t="shared" ref="F8" si="11">60/E8*C8</f>
+        <f>60/E8*C8</f>
         <v>1</v>
       </c>
       <c r="G8" s="55">
         <v>20</v>
       </c>
       <c r="H8" s="57">
-        <f t="shared" ref="H8" si="12">D8*F8*G8</f>
+        <f t="shared" ref="H8" si="11">D8*F8*G8</f>
         <v>60</v>
       </c>
       <c r="I8" s="18" t="s">
@@ -2587,28 +2591,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="55">
         <v>1</v>
       </c>
       <c r="D9" s="55">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(A9,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E9" s="55">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
       <c r="F9" s="56">
-        <f>60/E9*C9</f>
+        <f t="shared" ref="F9" si="12">60/E9*C9</f>
         <v>1</v>
       </c>
       <c r="G9" s="55">
         <v>20</v>
       </c>
       <c r="H9" s="57">
-        <f t="shared" si="8"/>
+        <f>D9*F9*G9</f>
         <v>60</v>
       </c>
       <c r="I9" s="18" t="s">
@@ -2685,10 +2689,10 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J11" s="16">
-        <v>31.578947368421055</v>
+        <v>107.4141876430206</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -2721,10 +2725,10 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J12" s="16">
-        <v>107.4141876430206</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -2757,7 +2761,7 @@
         <v>24.242424242424242</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J13" s="16">
         <v>31.578947368421055</v>
@@ -2804,7 +2808,7 @@
         <v>58</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="55">
         <v>1</v>
@@ -2864,7 +2868,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C17" s="55">
         <v>1</v>
@@ -2921,7 +2925,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>59</v>
@@ -2951,7 +2955,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>0</v>
@@ -2981,10 +2985,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="55">
         <v>1</v>
@@ -3011,7 +3015,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>6</v>
@@ -3041,7 +3045,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="51" t="s">
         <v>59</v>
@@ -3071,7 +3075,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>0</v>
@@ -3101,10 +3105,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="55">
         <v>1</v>
@@ -3131,7 +3135,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>11</v>
@@ -3161,7 +3165,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>12</v>
@@ -3312,13 +3316,13 @@
     <row r="33" spans="1:9" ht="15" thickBot="1"/>
     <row r="34" spans="1:9">
       <c r="A34" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="61"/>
     </row>
     <row r="35" spans="1:9" ht="108">
       <c r="A35" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>55</v>
@@ -3396,7 +3400,7 @@
     </row>
     <row r="38" spans="1:9" ht="54">
       <c r="A38" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="46">
         <v>305</v>
@@ -3578,7 +3582,7 @@
     </row>
     <row r="45" spans="1:9" ht="54">
       <c r="A45" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="46">
         <v>97</v>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="47" spans="1:9" ht="54">
       <c r="A47" s="47" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B47" s="46">
         <v>97</v>
@@ -3688,7 +3692,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="C50" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -3702,19 +3706,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="C51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
         <v>67</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>69</v>
-      </c>
-      <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>70</v>
       </c>
       <c r="I51" s="36">
         <f>1-B53/H53</f>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="39">
         <f>150/3</f>
@@ -3793,7 +3797,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="40">
         <f>30/3</f>
@@ -3827,7 +3831,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="39">
         <f>20/3</f>
@@ -3857,7 +3861,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="39">
         <f>120/3</f>
@@ -3970,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="5">
         <v>251</v>
@@ -3989,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="5">
         <v>251</v>
@@ -4008,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5">
         <v>175</v>
@@ -4027,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="5">
         <v>159</v>
@@ -4046,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5">
         <v>73</v>
@@ -4130,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="11">
         <f>5*251</f>
@@ -4150,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="11">
         <f>5*251</f>
@@ -4170,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="11">
         <f>5*175</f>
@@ -4190,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11">
         <f>5*159</f>
@@ -4210,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="11">
         <f>5*73</f>
@@ -4302,7 +4306,7 @@
         <v>0.12754860123281175</v>
       </c>
       <c r="L38" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="15">
         <v>377</v>
@@ -4319,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="11">
         <f>5*251</f>
@@ -4333,7 +4337,7 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L39" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M39" s="15">
         <v>998</v>
@@ -4350,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="11">
         <f>5*251</f>
@@ -4364,7 +4368,7 @@
         <v>4.5627376425855459E-2</v>
       </c>
       <c r="L40" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M40" s="15" t="s">
         <v>29</v>
@@ -4381,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="11">
         <f>5*175</f>
@@ -4412,7 +4416,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="11">
         <f>5*159</f>
@@ -4443,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="11">
         <f>5*73</f>
@@ -4457,7 +4461,7 @@
         <v>9.6534653465346509E-2</v>
       </c>
       <c r="L43" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M43" s="15">
         <v>924</v>
@@ -4488,7 +4492,7 @@
         <v>2.68656716417911E-2</v>
       </c>
       <c r="L44" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M44" s="15" t="s">
         <v>29</v>

--- a/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -8,11 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
-    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId2"/>
+    <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
+    <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
+    <sheet name="Шаблоны соотвествие профилю" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -281,6 +283,51 @@
   </si>
   <si>
     <t>Переход на следуюущий экран после регистарции</t>
+  </si>
+  <si>
+    <t>Имя в статистике</t>
+  </si>
+  <si>
+    <t>Имя в скрипте</t>
+  </si>
+  <si>
+    <t>clickToFlights</t>
+  </si>
+  <si>
+    <t>clickToRegProfile</t>
+  </si>
+  <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>regProfile</t>
+  </si>
+  <si>
+    <t>saveProfile</t>
+  </si>
+  <si>
+    <t>SLA Status</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>90 Percent</t>
+  </si>
+  <si>
+    <t>No Data</t>
+  </si>
+  <si>
+    <t>Scriptname</t>
   </si>
 </sst>
 </file>
@@ -766,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1084,6 +1131,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1132,11 +1209,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1191,16 +1265,12 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
@@ -1255,6 +1325,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1326,7 +1416,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44743.604929166664" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Гульнара" refreshedDate="44747.701167824074" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1676,7 +1766,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2034,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2044,10 +2134,11 @@
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
@@ -2055,31 +2146,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>35</v>
       </c>
       <c r="J1" t="s">
@@ -2106,13 +2197,13 @@
       <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>45</v>
       </c>
       <c r="X1" t="s">
@@ -2120,72 +2211,72 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="55">
+      <c r="C2" s="52">
+        <v>1</v>
+      </c>
+      <c r="D2" s="52">
         <f t="shared" ref="D2:D13" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="52">
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="53">
         <f>60/E2*C2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="52">
         <v>20</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="54">
         <f>D2*F2*G2</f>
         <v>60</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>144.98994521877819</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="15"/>
       <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="23">
         <v>1.7</v>
       </c>
-      <c r="O2" s="24">
-        <v>45</v>
-      </c>
-      <c r="P2" s="32">
+      <c r="O2" s="23">
+        <v>35</v>
+      </c>
+      <c r="P2" s="30">
         <f>N2+O2</f>
-        <v>46.7</v>
-      </c>
-      <c r="Q2" s="19">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="Q2" s="18">
         <v>60</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="18">
         <v>3</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="19">
         <f>60/(Q2)</f>
         <v>1</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="20">
         <v>20</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="21">
         <f>ROUND(R2*S2*T2,0)</f>
         <v>60</v>
       </c>
-      <c r="V2" s="42">
+      <c r="V2" s="39">
         <f>R2/W$2</f>
         <v>0.3</v>
       </c>
@@ -2195,1511 +2286,1570 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55">
-        <v>1</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="C3" s="52">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="52">
         <f>VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <f>60/E3*C3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="52">
         <v>20</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="54">
         <f>D3*F3*G3</f>
         <v>60</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>94.782608695652172</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="15"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <v>1.5</v>
       </c>
-      <c r="O3" s="24">
-        <v>30</v>
-      </c>
-      <c r="P3" s="32">
+      <c r="O3" s="23">
+        <v>15</v>
+      </c>
+      <c r="P3" s="30">
         <f t="shared" ref="P3:P7" si="1">N3+O3</f>
-        <v>31.5</v>
-      </c>
-      <c r="Q3" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="Q3" s="18">
         <v>99</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>2</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="19">
         <f t="shared" ref="S3:S5" si="2">60/(Q3)</f>
         <v>0.60606060606060608</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="20">
         <v>20</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="21">
         <f t="shared" ref="U3:U5" si="3">ROUND(R3*S3*T3,0)</f>
         <v>24</v>
       </c>
-      <c r="V3" s="42">
+      <c r="V3" s="39">
         <f>R3/W$2</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="55">
-        <v>1</v>
-      </c>
-      <c r="D4" s="55">
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52">
         <f t="shared" ref="D4" si="4">VLOOKUP(A4,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="52">
         <f>VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="53">
         <f>60/E4*C4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="52">
         <v>20</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="54">
         <f>D4*F4*G4</f>
         <v>60</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>104.21052631578948</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="15"/>
       <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="23">
         <v>1.3</v>
       </c>
-      <c r="O4" s="24">
-        <v>25</v>
-      </c>
-      <c r="P4" s="32">
+      <c r="O4" s="23">
+        <v>20</v>
+      </c>
+      <c r="P4" s="30">
         <f t="shared" si="1"/>
-        <v>26.3</v>
-      </c>
-      <c r="Q4" s="19">
+        <v>21.3</v>
+      </c>
+      <c r="Q4" s="18">
         <v>38</v>
       </c>
-      <c r="R4" s="19">
-        <v>1</v>
-      </c>
-      <c r="S4" s="20">
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="19">
         <f t="shared" si="2"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="20">
         <v>20</v>
       </c>
-      <c r="U4" s="22">
+      <c r="U4" s="21">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="39">
         <f t="shared" ref="V4:V5" si="5">R4/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55">
-        <v>1</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="52">
         <f t="shared" ref="E5:E13" si="6">VLOOKUP(A5,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="53">
         <f t="shared" ref="F5:F30" si="7">60/E5*C5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="52">
         <v>20</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="54">
         <f t="shared" ref="H5:H30" si="8">D5*F5*G5</f>
         <v>60</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>94.782608695652172</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="15"/>
       <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>1.7</v>
       </c>
-      <c r="O5" s="24">
-        <v>40</v>
-      </c>
-      <c r="P5" s="32">
+      <c r="O5" s="23">
+        <v>20</v>
+      </c>
+      <c r="P5" s="30">
         <f t="shared" si="1"/>
-        <v>41.7</v>
-      </c>
-      <c r="Q5" s="19">
+        <v>21.7</v>
+      </c>
+      <c r="Q5" s="18">
         <v>69</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <v>2</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="19">
         <f t="shared" si="2"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="20">
         <v>20</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="21">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="39">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="55">
-        <v>1</v>
-      </c>
-      <c r="D6" s="55">
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="52">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="53">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="52">
         <v>20</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="54">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>60</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
       <c r="M6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="23">
         <v>1.3</v>
       </c>
-      <c r="O6" s="24">
-        <v>30</v>
-      </c>
-      <c r="P6" s="32">
+      <c r="O6" s="23">
+        <v>10</v>
+      </c>
+      <c r="P6" s="30">
         <f t="shared" si="1"/>
-        <v>31.3</v>
-      </c>
-      <c r="Q6" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="Q6" s="18">
         <v>90</v>
       </c>
-      <c r="R6" s="19">
-        <v>1</v>
-      </c>
-      <c r="S6" s="20">
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19">
         <f>60/(Q6)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="20">
         <v>20</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <f>ROUND(R6*S6*T6,0)</f>
         <v>13</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="39">
         <f>R6/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="55">
-        <v>1</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="C7" s="52">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="52">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="53">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="52">
         <v>20</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="54">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>24.242424242424242</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="15"/>
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="23">
         <v>1.4</v>
       </c>
-      <c r="O7" s="34">
-        <v>25</v>
-      </c>
-      <c r="P7" s="32">
+      <c r="O7" s="31">
+        <v>15</v>
+      </c>
+      <c r="P7" s="30">
         <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
-      <c r="Q7" s="19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Q7" s="18">
         <v>95</v>
       </c>
-      <c r="R7" s="35">
-        <v>1</v>
-      </c>
-      <c r="S7" s="20">
+      <c r="R7" s="32">
+        <v>1</v>
+      </c>
+      <c r="S7" s="19">
         <f>60/(Q7)</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="20">
         <v>20</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <f>ROUND(R7*S7*T7,0)</f>
         <v>13</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="39">
         <f>R7/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="55">
-        <v>1</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="C8" s="52">
+        <v>1</v>
+      </c>
+      <c r="D8" s="52">
         <f t="shared" ref="D8" si="9">VLOOKUP(A8,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="52">
         <f t="shared" ref="E8" si="10">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="53">
         <f>60/E8*C8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="52">
         <v>20</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="54">
         <f t="shared" ref="H8" si="11">D8*F8*G8</f>
         <v>60</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>97.575757575757578</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="55">
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
+      <c r="C9" s="52">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52">
         <f>VLOOKUP(A9,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="52">
         <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <f t="shared" ref="F9" si="12">60/E9*C9</f>
         <v>1</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="52">
         <v>20</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="54">
         <f>D9*F9*G9</f>
         <v>60</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>176.56889258719926</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="55">
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="52">
         <f t="shared" ref="D10" si="13">VLOOKUP(A10,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <f t="shared" ref="E10" si="14">VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="53">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="52">
         <v>20</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="54">
         <f t="shared" ref="H10" si="15">D10*F10*G10</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="55">
-        <v>1</v>
-      </c>
-      <c r="D11" s="55">
+      <c r="C11" s="52">
+        <v>1</v>
+      </c>
+      <c r="D11" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="53">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="52">
         <v>20</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <f t="shared" si="8"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>107.4141876430206</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="55">
-        <v>1</v>
-      </c>
-      <c r="D12" s="55">
+      <c r="C12" s="52">
+        <v>1</v>
+      </c>
+      <c r="D12" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <f>VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="53">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="52">
         <v>20</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="54">
         <f t="shared" si="8"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="55">
-        <v>1</v>
-      </c>
-      <c r="D13" s="55">
+      <c r="C13" s="52">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="53">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="52">
         <v>20</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="54">
         <f t="shared" si="8"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="55">
-        <v>1</v>
-      </c>
-      <c r="D14" s="55">
+      <c r="C14" s="52">
+        <v>1</v>
+      </c>
+      <c r="D14" s="52">
         <f t="shared" ref="D14:D30" si="16">VLOOKUP(A14,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <f t="shared" ref="E14:E30" si="17">VLOOKUP(A14,$M$1:$W$8,5,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="53">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="52">
         <v>20</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="54">
         <f t="shared" ref="H14" si="18">D14*F14*G14</f>
         <v>31.578947368421055</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>999.30379307953683</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="55">
-        <v>1</v>
-      </c>
-      <c r="D15" s="55">
+      <c r="C15" s="52">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="54">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="53">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="52">
         <v>20</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="54">
         <f t="shared" si="8"/>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="55">
-        <v>1</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="C16" s="52">
+        <v>1</v>
+      </c>
+      <c r="D16" s="52">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="53">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="52">
         <v>20</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="54">
         <f t="shared" si="8"/>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="55">
-        <v>1</v>
-      </c>
-      <c r="D17" s="55">
+      <c r="C17" s="52">
+        <v>1</v>
+      </c>
+      <c r="D17" s="52">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="53">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="52">
         <v>20</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <f t="shared" si="8"/>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="55">
-        <v>1</v>
-      </c>
-      <c r="D18" s="55">
+      <c r="C18" s="52">
+        <v>1</v>
+      </c>
+      <c r="D18" s="52">
         <f t="shared" ref="D18" si="19">VLOOKUP(A18,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="54">
         <f t="shared" ref="E18" si="20">VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="53">
         <f t="shared" ref="F18" si="21">60/E18*C18</f>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="52">
         <v>20</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="54">
         <f t="shared" ref="H18" si="22">D18*F18*G18</f>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="55">
-        <v>1</v>
-      </c>
-      <c r="D19" s="55">
+      <c r="C19" s="52">
+        <v>1</v>
+      </c>
+      <c r="D19" s="52">
         <f t="shared" ref="D19" si="23">VLOOKUP(A19,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="54">
         <f t="shared" ref="E19" si="24">VLOOKUP(A19,$M$1:$W$8,5,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="53">
         <f t="shared" ref="F19" si="25">60/E19*C19</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="52">
         <v>20</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="54">
         <f t="shared" ref="H19" si="26">D19*F19*G19</f>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="55">
-        <v>1</v>
-      </c>
-      <c r="D20" s="55">
+      <c r="C20" s="52">
+        <v>1</v>
+      </c>
+      <c r="D20" s="52">
         <f t="shared" ref="D20:D22" si="27">VLOOKUP(A20,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="52">
         <f t="shared" ref="E20:E22" si="28">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="53">
         <f t="shared" ref="F20:F22" si="29">60/E20*C20</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="52">
         <v>20</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="54">
         <f t="shared" ref="H20:H22" si="30">D20*F20*G20</f>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="55">
-        <v>1</v>
-      </c>
-      <c r="D21" s="55">
+      <c r="C21" s="52">
+        <v>1</v>
+      </c>
+      <c r="D21" s="52">
         <f t="shared" ref="D21" si="31">VLOOKUP(A21,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="52">
         <f t="shared" ref="E21" si="32">VLOOKUP(A21,$M$1:$W$8,5,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="53">
         <f t="shared" ref="F21" si="33">60/E21*C21</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="52">
         <v>20</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="54">
         <f t="shared" ref="H21" si="34">D21*F21*G21</f>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="55">
-        <v>1</v>
-      </c>
-      <c r="D22" s="55">
+      <c r="C22" s="52">
+        <v>1</v>
+      </c>
+      <c r="D22" s="52">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="52">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="53">
         <f t="shared" si="29"/>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="52">
         <v>20</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="54">
         <f t="shared" si="30"/>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="55">
-        <v>1</v>
-      </c>
-      <c r="D23" s="55">
+      <c r="C23" s="52">
+        <v>1</v>
+      </c>
+      <c r="D23" s="52">
         <f t="shared" ref="D23:D24" si="35">VLOOKUP(A23,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="52">
         <f t="shared" ref="E23:E24" si="36">VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="53">
         <f t="shared" ref="F23:F24" si="37">60/E23*C23</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="52">
         <v>20</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="54">
         <f t="shared" ref="H23:H24" si="38">D23*F23*G23</f>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="55">
-        <v>1</v>
-      </c>
-      <c r="D24" s="55">
+      <c r="C24" s="52">
+        <v>1</v>
+      </c>
+      <c r="D24" s="52">
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="52">
         <f t="shared" si="36"/>
         <v>69</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="53">
         <f t="shared" si="37"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="52">
         <v>20</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="54">
         <f t="shared" si="38"/>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="55">
-        <v>1</v>
-      </c>
-      <c r="D25" s="55">
+      <c r="C25" s="52">
+        <v>1</v>
+      </c>
+      <c r="D25" s="52">
         <f t="shared" ref="D25" si="39">VLOOKUP(A25,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="52">
         <f t="shared" ref="E25" si="40">VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="53">
         <f t="shared" ref="F25" si="41">60/E25*C25</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="52">
         <v>20</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="54">
         <f t="shared" ref="H25" si="42">D25*F25*G25</f>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="55">
-        <v>1</v>
-      </c>
-      <c r="D26" s="55">
+      <c r="C26" s="52">
+        <v>1</v>
+      </c>
+      <c r="D26" s="52">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="52">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="53">
         <f t="shared" si="7"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G26" s="55">
+      <c r="G26" s="52">
         <v>20</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="54">
         <f t="shared" si="8"/>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="55">
-        <v>1</v>
-      </c>
-      <c r="D27" s="55">
+      <c r="C27" s="52">
+        <v>1</v>
+      </c>
+      <c r="D27" s="52">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="52">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="53">
         <f t="shared" si="7"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="52">
         <v>20</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="54">
         <f t="shared" si="8"/>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="55">
-        <v>1</v>
-      </c>
-      <c r="D28" s="55">
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="52">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="53">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="52">
         <v>20</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="54">
         <f t="shared" ref="H28" si="43">D28*F28*G28</f>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="55">
-        <v>1</v>
-      </c>
-      <c r="D29" s="55">
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="52">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="52">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="53">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="52">
         <v>20</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="54">
         <f t="shared" si="8"/>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="55">
-        <v>1</v>
-      </c>
-      <c r="D30" s="55">
+      <c r="C30" s="52">
+        <v>1</v>
+      </c>
+      <c r="D30" s="52">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="52">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="53">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="52">
         <v>20</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="54">
         <f t="shared" si="8"/>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="55">
-        <v>1</v>
-      </c>
-      <c r="D31" s="55">
+      <c r="C31" s="52">
+        <v>1</v>
+      </c>
+      <c r="D31" s="52">
         <f t="shared" ref="D31" si="44">VLOOKUP(A31,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E31" s="52">
         <f t="shared" ref="E31" si="45">VLOOKUP(A31,$M$1:$W$8,5,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="53">
         <f t="shared" ref="F31" si="46">60/E31*C31</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="52">
         <v>20</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="54">
         <f t="shared" ref="H31" si="47">D31*F31*G31</f>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1"/>
     <row r="34" spans="1:9">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="61"/>
+      <c r="B34" s="66"/>
     </row>
     <row r="35" spans="1:9" ht="108">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="31" t="s">
+      <c r="E35" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="36">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="43">
         <v>520</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="27">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
         <v>529.7066777615978</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="28">
         <f t="shared" ref="D36:D38" si="48">1-B36/C36</f>
         <v>1.8324627891450618E-2</v>
       </c>
-      <c r="F36" s="23">
-        <f>C37/3</f>
-        <v>144.98994521877819</v>
-      </c>
-      <c r="G36" s="23">
-        <v>63</v>
-      </c>
-      <c r="H36" s="26">
-        <f t="shared" ref="H36:H48" si="49">1-F36/G36</f>
-        <v>-1.3014277018853679</v>
+      <c r="E36" s="63" t="str">
+        <f>VLOOKUP(A36,Соответствие!A2:B13,2,FALSE)</f>
+        <v>homePage</v>
+      </c>
+      <c r="F36" s="22">
+        <f>C36/3</f>
+        <v>176.56889258719926</v>
+      </c>
+      <c r="G36" s="22">
+        <f>VLOOKUP(E36,SummaryReport!A:J,8,FALSE)</f>
+        <v>178</v>
+      </c>
+      <c r="H36" s="25">
+        <f t="shared" ref="H36:H47" si="49">1-F36/G36</f>
+        <v>8.0399292853974291E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="43">
         <v>422</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="27">
         <f t="shared" ref="C37:C47" si="50">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
         <v>434.96983565633457</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="28">
         <f t="shared" si="48"/>
         <v>2.981778181644279E-2</v>
       </c>
-      <c r="F37" s="23">
-        <f>C39/6</f>
-        <v>47.391304347826086</v>
-      </c>
-      <c r="G37" s="23">
-        <v>42</v>
-      </c>
-      <c r="H37" s="26">
+      <c r="E37" s="63" t="str">
+        <f>VLOOKUP(A37,Соответствие!A3:B14,2,FALSE)</f>
+        <v>login</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" ref="F37:F47" si="51">C37/3</f>
+        <v>144.98994521877819</v>
+      </c>
+      <c r="G37" s="22">
+        <f>VLOOKUP(E37,SummaryReport!A:J,8,FALSE)</f>
+        <v>146</v>
+      </c>
+      <c r="H37" s="25">
         <f t="shared" si="49"/>
-        <v>-0.12836438923395432</v>
+        <v>6.9181834330260816E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="54">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="43">
         <v>305</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="27">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>322.24256292906182</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="28">
         <f t="shared" si="48"/>
         <v>5.3508024428348344E-2</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="26"/>
+      <c r="E38" s="63" t="str">
+        <f>VLOOKUP(A38,Соответствие!A4:B15,2,FALSE)</f>
+        <v>clickToFlights</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="51"/>
+        <v>107.41418764302061</v>
+      </c>
+      <c r="G38" s="22">
+        <f>VLOOKUP(E38,SummaryReport!A:J,8,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="36">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="43">
         <v>282</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="27">
         <f t="shared" si="50"/>
         <v>284.3478260869565</v>
       </c>
-      <c r="D39" s="25">
-        <f t="shared" ref="D39:D48" si="51">1-B39/C39</f>
+      <c r="D39" s="24">
+        <f t="shared" ref="D39:D48" si="52">1-B39/C39</f>
         <v>8.2568807339449268E-3</v>
       </c>
-      <c r="F39" s="23">
-        <f t="shared" ref="F39:F48" si="52">C40/6</f>
-        <v>47.391304347826086</v>
-      </c>
-      <c r="G39" s="23">
-        <v>42</v>
-      </c>
-      <c r="H39" s="26">
+      <c r="E39" s="63" t="str">
+        <f>VLOOKUP(A39,Соответствие!A5:B16,2,FALSE)</f>
+        <v>searchTicket</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="51"/>
+        <v>94.782608695652172</v>
+      </c>
+      <c r="G39" s="22">
+        <f>VLOOKUP(E39,SummaryReport!A:J,8,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="H39" s="25">
         <f t="shared" si="49"/>
-        <v>-0.12836438923395432</v>
+        <v>-8.3256244218317121E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="36">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="43">
         <v>270</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="27">
         <f t="shared" si="50"/>
         <v>284.3478260869565</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="24">
+        <f t="shared" si="52"/>
+        <v>5.0458715596330195E-2</v>
+      </c>
+      <c r="E40" s="63" t="str">
+        <f>VLOOKUP(A40,Соответствие!A6:B17,2,FALSE)</f>
+        <v>departureTime</v>
+      </c>
+      <c r="F40" s="22">
         <f t="shared" si="51"/>
-        <v>5.0458715596330195E-2</v>
-      </c>
-      <c r="F40" s="23">
-        <f t="shared" si="52"/>
-        <v>30</v>
-      </c>
-      <c r="G40" s="23">
-        <v>27</v>
-      </c>
-      <c r="H40" s="26">
+        <v>94.782608695652172</v>
+      </c>
+      <c r="G40" s="22">
+        <f>VLOOKUP(E40,SummaryReport!A:J,8,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="H40" s="25">
         <f t="shared" si="49"/>
-        <v>-0.11111111111111116</v>
+        <v>-8.3256244218317121E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="43">
         <v>175</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="27">
         <f t="shared" si="50"/>
         <v>180</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="24">
+        <f t="shared" si="52"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E41" s="63" t="str">
+        <f>VLOOKUP(A41,Соответствие!A7:B18,2,FALSE)</f>
+        <v>paymentDetails</v>
+      </c>
+      <c r="F41" s="22">
         <f t="shared" si="51"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="F41" s="23">
-        <f t="shared" si="52"/>
-        <v>48.787878787878789</v>
-      </c>
-      <c r="G41" s="23">
-        <v>29</v>
-      </c>
-      <c r="H41" s="26">
+        <v>60</v>
+      </c>
+      <c r="G41" s="22">
+        <f>VLOOKUP(E41,SummaryReport!A:J,8,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="H41" s="25">
         <f t="shared" si="49"/>
-        <v>-0.68234064785788928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="36">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="43">
         <v>280</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="27">
         <f t="shared" si="50"/>
         <v>292.72727272727275</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
+        <f t="shared" si="52"/>
+        <v>4.3478260869565299E-2</v>
+      </c>
+      <c r="E42" s="63" t="str">
+        <f>VLOOKUP(A42,Соответствие!A8:B19,2,FALSE)</f>
+        <v>clickItinerary</v>
+      </c>
+      <c r="F42" s="22">
         <f t="shared" si="51"/>
-        <v>4.3478260869565299E-2</v>
-      </c>
-      <c r="F42" s="23">
-        <f t="shared" si="52"/>
-        <v>12.121212121212119</v>
-      </c>
-      <c r="G42" s="23">
+        <v>97.575757575757578</v>
+      </c>
+      <c r="G42" s="22">
+        <f>VLOOKUP(E42,SummaryReport!A:J,8,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="H42" s="25">
+        <f t="shared" si="49"/>
+        <v>4.3290043290042934E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="36">
+      <c r="A43" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="26">
-        <f t="shared" si="49"/>
-        <v>6.7599067599067753E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="36">
-      <c r="A43" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="46">
+      <c r="B43" s="43">
         <v>73</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="27">
         <f t="shared" si="50"/>
         <v>72.72727272727272</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
+        <f t="shared" si="52"/>
+        <v>-3.7500000000001421E-3</v>
+      </c>
+      <c r="E43" s="63" t="str">
+        <f>VLOOKUP(A43,Соответствие!A9:B20,2,FALSE)</f>
+        <v>deleteTicket</v>
+      </c>
+      <c r="F43" s="22">
         <f t="shared" si="51"/>
-        <v>-3.7500000000001421E-3</v>
-      </c>
-      <c r="F43" s="23">
-        <f t="shared" si="52"/>
-        <v>52.10526315789474</v>
-      </c>
-      <c r="G43" s="23">
-        <v>56</v>
-      </c>
-      <c r="H43" s="26">
+        <v>24.242424242424239</v>
+      </c>
+      <c r="G43" s="22">
+        <f>VLOOKUP(E43,SummaryReport!A:J,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="H43" s="25">
         <f t="shared" si="49"/>
-        <v>6.9548872180451027E-2</v>
+        <v>-5.4018445322792985E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="43">
         <v>326</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="27">
         <f t="shared" si="50"/>
         <v>312.63157894736844</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
+        <f t="shared" si="52"/>
+        <v>-4.2760942760942777E-2</v>
+      </c>
+      <c r="E44" s="63" t="str">
+        <f>VLOOKUP(A44,Соответствие!A10:B21,2,FALSE)</f>
+        <v>logout</v>
+      </c>
+      <c r="F44" s="22">
         <f t="shared" si="51"/>
-        <v>-4.2760942760942777E-2</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="33">
-        <f t="shared" si="52"/>
-        <v>15.789473684210527</v>
-      </c>
-      <c r="G44" s="23">
-        <v>56</v>
-      </c>
-      <c r="H44" s="26">
+        <v>104.21052631578948</v>
+      </c>
+      <c r="G44" s="22">
+        <f>VLOOKUP(E44,SummaryReport!A:J,8,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="H44" s="25">
         <f t="shared" si="49"/>
-        <v>0.71804511278195493</v>
+        <v>-2.0242914979757831E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="54">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="43">
         <v>97</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="27">
         <f t="shared" si="50"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="24">
+        <f t="shared" si="52"/>
+        <v>-2.3888888888888848E-2</v>
+      </c>
+      <c r="E45" s="63" t="str">
+        <f>VLOOKUP(A45,Соответствие!A11:B22,2,FALSE)</f>
+        <v>clickToRegProfile</v>
+      </c>
+      <c r="F45" s="22">
         <f t="shared" si="51"/>
-        <v>-2.3888888888888848E-2</v>
-      </c>
-      <c r="F45" s="23">
-        <f t="shared" si="52"/>
-        <v>15.789473684210527</v>
-      </c>
-      <c r="G45" s="23">
-        <v>56</v>
-      </c>
-      <c r="H45" s="26">
+        <v>31.578947368421055</v>
+      </c>
+      <c r="G45" s="22">
+        <f>VLOOKUP(E45,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="H45" s="25">
         <f t="shared" si="49"/>
-        <v>0.71804511278195493</v>
+        <v>1.3157894736842035E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="36">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="43">
         <v>97</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="27">
         <f t="shared" si="50"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="24">
+        <f t="shared" si="52"/>
+        <v>-2.3888888888888848E-2</v>
+      </c>
+      <c r="E46" s="63" t="str">
+        <f>VLOOKUP(A46,Соответствие!A12:B23,2,FALSE)</f>
+        <v>regProfile</v>
+      </c>
+      <c r="F46" s="22">
         <f t="shared" si="51"/>
-        <v>-2.3888888888888848E-2</v>
-      </c>
-      <c r="F46" s="33">
-        <f t="shared" si="52"/>
-        <v>15.789473684210527</v>
-      </c>
-      <c r="G46" s="23">
-        <v>56</v>
-      </c>
-      <c r="H46" s="26">
+        <v>31.578947368421055</v>
+      </c>
+      <c r="G46" s="22">
+        <f>VLOOKUP(E46,SummaryReport!A:J,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H46" s="25">
         <f t="shared" si="49"/>
-        <v>0.71804511278195493</v>
+        <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="54">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="43">
         <v>97</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="27">
         <f t="shared" si="50"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="24">
+        <f t="shared" si="52"/>
+        <v>-2.3888888888888848E-2</v>
+      </c>
+      <c r="E47" s="63" t="str">
+        <f>VLOOKUP(A47,Соответствие!A13:B24,2,FALSE)</f>
+        <v>saveProfile</v>
+      </c>
+      <c r="F47" s="22">
         <f t="shared" si="51"/>
-        <v>-2.3888888888888848E-2</v>
-      </c>
-      <c r="F47" s="23">
-        <f t="shared" si="52"/>
-        <v>499.65189653976853</v>
-      </c>
-      <c r="G47" s="23">
-        <v>56</v>
-      </c>
-      <c r="H47" s="26">
+        <v>31.578947368421055</v>
+      </c>
+      <c r="G47" s="22">
+        <f>VLOOKUP(E47,SummaryReport!A:J,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="H47" s="25">
         <f t="shared" si="49"/>
-        <v>-7.9223552953530092</v>
+        <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="46">
         <f>SUM(B36:B47)</f>
         <v>2944</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="26">
         <f>SUM(C36:C47)</f>
         <v>2997.9113792386111</v>
       </c>
-      <c r="D48" s="25">
-        <f t="shared" si="51"/>
+      <c r="D48" s="24">
+        <f t="shared" si="52"/>
         <v>1.7982979621066431E-2</v>
       </c>
-      <c r="F48" s="33">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>56</v>
-      </c>
-      <c r="H48" s="26">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="38"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="35"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="36">
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="33">
         <f>1-B52/H52</f>
         <v>0.22499999999999987</v>
       </c>
@@ -3720,7 +3870,7 @@
       <c r="G51" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="33">
         <f>1-B53/H53</f>
         <v>0.16666666666666663</v>
       </c>
@@ -3729,21 +3879,21 @@
       <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="36">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="36">
         <v>45</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="36">
         <f>60/C52</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="36">
         <v>20</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="34">
         <f>B52/(D52*E52)</f>
         <v>1.5500000000000003</v>
       </c>
@@ -3755,7 +3905,7 @@
         <f>G52*D52*E52</f>
         <v>53.333333333333329</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="33">
         <f>1-B54/H54</f>
         <v>0.75</v>
       </c>
@@ -3764,21 +3914,21 @@
       <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="36">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="36">
         <v>20</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="36">
         <f t="shared" ref="D53:D56" si="53">60/C53</f>
         <v>3</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E53" s="36">
         <v>20</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="34">
         <f>B53/(D53*E53)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3790,7 +3940,7 @@
         <f t="shared" ref="H53:H56" si="55">G53*D53*E53</f>
         <v>60</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="33">
         <f>1-B55/H55</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3799,21 +3949,21 @@
       <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="37">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="37">
         <v>30</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="36">
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="36">
         <v>20</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="34">
         <f>B54/(D54*E54)</f>
         <v>0.25</v>
       </c>
@@ -3824,7 +3974,7 @@
         <f t="shared" si="55"/>
         <v>40</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="33">
         <f>1-B56/H56</f>
         <v>0</v>
       </c>
@@ -3833,21 +3983,21 @@
       <c r="A55" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="36">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="36">
         <v>20</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="36">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="36">
         <v>20</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="34">
         <f>B55/(D55*E55)</f>
         <v>0.11111111111111112</v>
       </c>
@@ -3863,21 +4013,21 @@
       <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="36">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="36">
         <v>30</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="36">
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="36">
         <v>20</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="34">
         <f>B56/(D56*E56)</f>
         <v>1</v>
       </c>
@@ -3899,6 +4049,583 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="58" t="str">
+        <f>'Автоматизированный расчет'!A36</f>
+        <v>Главная Welcome страница</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="57" t="str">
+        <f>'Автоматизированный расчет'!A37</f>
+        <v>Вход в систему</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8">
+      <c r="A4" s="57" t="str">
+        <f>'Автоматизированный расчет'!A38</f>
+        <v>Переход на страницу поиска билетов</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8">
+      <c r="A5" s="57" t="str">
+        <f>'Автоматизированный расчет'!A39</f>
+        <v xml:space="preserve">Заполнение полей для поиска билета </v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8">
+      <c r="A6" s="57" t="str">
+        <f>'Автоматизированный расчет'!A40</f>
+        <v xml:space="preserve">Выбор рейса из найденных </v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="57" t="str">
+        <f>'Автоматизированный расчет'!A41</f>
+        <v>Оплата билета</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="57" t="str">
+        <f>'Автоматизированный расчет'!A42</f>
+        <v>Просмотр квитанций</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="57" t="str">
+        <f>'Автоматизированный расчет'!A43</f>
+        <v xml:space="preserve">Отмена бронирования </v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="57" t="str">
+        <f>'Автоматизированный расчет'!A44</f>
+        <v>Выход из системы</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8">
+      <c r="A11" s="57" t="str">
+        <f>'Автоматизированный расчет'!A45</f>
+        <v>Переход на страницу регистрации</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8">
+      <c r="A12" s="57" t="str">
+        <f>'Автоматизированный расчет'!A46</f>
+        <v>Заполнение полей регистарции</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8">
+      <c r="A13" s="57" t="str">
+        <f>'Автоматизированный расчет'!A47</f>
+        <v>Переход на следуюущий экран после регистарции</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="57" t="str">
+        <f>'Автоматизированный расчет'!A48</f>
+        <v>Итого</v>
+      </c>
+      <c r="B14" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>0.159</v>
+      </c>
+      <c r="D3">
+        <v>0.245</v>
+      </c>
+      <c r="E3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H3">
+        <v>98</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>0.155</v>
+      </c>
+      <c r="D4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="F4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H4">
+        <v>107</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.108</v>
+      </c>
+      <c r="E5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>0.253</v>
+      </c>
+      <c r="D6">
+        <v>0.31</v>
+      </c>
+      <c r="E6">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.128</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>0.114</v>
+      </c>
+      <c r="H7">
+        <v>94</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.158</v>
+      </c>
+      <c r="E8">
+        <v>0.311</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H8">
+        <v>178</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.19</v>
+      </c>
+      <c r="E9">
+        <v>0.371</v>
+      </c>
+      <c r="F9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.223</v>
+      </c>
+      <c r="H9">
+        <v>146</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <v>0.127</v>
+      </c>
+      <c r="D10">
+        <v>0.153</v>
+      </c>
+      <c r="E10">
+        <v>0.19</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H10">
+        <v>104</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11">
+        <v>0.104</v>
+      </c>
+      <c r="E11">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.114</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H12">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>0.151</v>
+      </c>
+      <c r="D13">
+        <v>0.184</v>
+      </c>
+      <c r="E13">
+        <v>0.255</v>
+      </c>
+      <c r="F13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.222</v>
+      </c>
+      <c r="H13">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>0.08</v>
+      </c>
+      <c r="D14">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H14">
+        <v>94</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C9:O44"/>
   <sheetViews>
@@ -3925,582 +4652,582 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9">
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="11" spans="5:9" ht="27.6">
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="15.6">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>368</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>'Автоматизированный расчет'!Q8+'Автоматизированный расчет'!Q7</f>
         <v>95</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>1-G12/H12</f>
         <v>-2.8736842105263158</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="31.2">
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>251</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>82*3</f>
         <v>246</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
         <v>-2.0325203252032464E-2</v>
       </c>
     </row>
     <row r="14" spans="5:9" ht="31.2">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>251</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f>82*3</f>
         <v>246</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>-2.0325203252032464E-2</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="15.6">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>175</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>56*3</f>
         <v>168</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="16" spans="5:9" ht="31.2">
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>159</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f>56*3</f>
         <v>168</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>5.3571428571428603E-2</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="46.8">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>73</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>25*3</f>
         <v>75</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="15.6">
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>326</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f>104*3</f>
         <v>312</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>-4.4871794871794934E-2</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="5:9" ht="15.6">
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>5*368</f>
         <v>1840</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>721*3</f>
         <v>2163</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <f>1-G26/H26</f>
         <v>0.14932963476652794</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="15.6">
-      <c r="E27" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>5*251</f>
         <v>1255</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>3*464</f>
         <v>1392</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
         <v>9.8419540229885083E-2</v>
       </c>
     </row>
     <row r="28" spans="5:9" ht="15.6">
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>5*251</f>
         <v>1255</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>3*462</f>
         <v>1386</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <f t="shared" si="1"/>
         <v>9.4516594516594554E-2</v>
       </c>
     </row>
     <row r="29" spans="5:9" ht="15.6">
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>5*175</f>
         <v>875</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>3*314</f>
         <v>942</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>7.1125265392781301E-2</v>
       </c>
     </row>
     <row r="30" spans="5:9" ht="15.6">
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>5*159</f>
         <v>795</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>3*330</f>
         <v>990</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <f t="shared" si="1"/>
         <v>0.19696969696969702</v>
       </c>
     </row>
     <row r="31" spans="5:9" ht="15.6">
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>5*73</f>
         <v>365</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>3*141</f>
         <v>423</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <f t="shared" si="1"/>
         <v>0.13711583924349879</v>
       </c>
     </row>
     <row r="32" spans="5:9" ht="15.6">
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f>5*326</f>
         <v>1630</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <f>3*599</f>
         <v>1797</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <f t="shared" si="1"/>
         <v>9.2932665553700611E-2</v>
       </c>
     </row>
     <row r="35" spans="5:15">
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="37" spans="5:15">
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="15" t="s">
+      <c r="O37" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.6">
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <f>5*368</f>
         <v>1840</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>2109</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <f>1-G38/H38</f>
         <v>0.12754860123281175</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="14">
         <v>377</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="14">
         <v>27</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:15" ht="15.6">
-      <c r="E39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f>5*251</f>
         <v>1255</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="14">
         <v>1315</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
         <v>4.5627376425855459E-2</v>
       </c>
-      <c r="L39" s="59" t="s">
+      <c r="L39" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="14">
         <v>998</v>
       </c>
-      <c r="N39" s="15">
-        <v>1</v>
-      </c>
-      <c r="O39" s="15">
+      <c r="N39" s="14">
+        <v>1</v>
+      </c>
+      <c r="O39" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:15" ht="15.6">
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f>5*251</f>
         <v>1255</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>1315</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <f t="shared" si="2"/>
         <v>4.5627376425855459E-2</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="15" t="s">
+      <c r="M40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="14">
         <v>0</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:15" ht="15.6">
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <f>5*175</f>
         <v>875</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="14">
         <v>924</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <f t="shared" si="2"/>
         <v>5.3030303030302983E-2</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="15" t="s">
+      <c r="M41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="14">
         <v>139</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="5:15" ht="15.6">
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <f>5*159</f>
         <v>795</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>998</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <f t="shared" si="2"/>
         <v>0.20340681362725455</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="15" t="s">
+      <c r="M42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="15">
-        <v>1</v>
-      </c>
-      <c r="O42" s="15">
+      <c r="N42" s="14">
+        <v>1</v>
+      </c>
+      <c r="O42" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:15" ht="15.6">
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <f>5*73</f>
         <v>365</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="14">
         <v>404</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <f t="shared" si="2"/>
         <v>9.6534653465346509E-2</v>
       </c>
-      <c r="L43" s="59" t="s">
+      <c r="L43" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="14">
         <v>924</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="14">
         <v>0</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O43" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="5:15" ht="15.6">
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <f>5*326</f>
         <v>1630</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>1675</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <f t="shared" si="2"/>
         <v>2.68656716417911E-2</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="14">
         <v>0</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O44" s="14">
         <v>0</v>
       </c>
     </row>

--- a/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
+++ b/LoadRunner/LoadRunner_Works/Документация/WebTours_Профиль_нагрузки_v1_2_Новая_статистика.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="23256" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -114,24 +114,12 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
     <t>Подтверждение максимума</t>
   </si>
   <si>
     <t>Профиль для 5 пользаков</t>
   </si>
   <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
-  </si>
-  <si>
     <t>Script name</t>
   </si>
   <si>
@@ -328,6 +316,27 @@
   </si>
   <si>
     <t>Scriptname</t>
+  </si>
+  <si>
+    <t>1 552</t>
+  </si>
+  <si>
+    <t>1 721</t>
+  </si>
+  <si>
+    <t>1 498</t>
+  </si>
+  <si>
+    <t>2 860</t>
+  </si>
+  <si>
+    <t>2 387</t>
+  </si>
+  <si>
+    <t>1 582</t>
+  </si>
+  <si>
+    <t>Поиск максимума 5 ступень</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +579,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="43">
@@ -813,24 +837,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1169,18 +1180,18 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1206,46 +1217,12 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
@@ -1254,106 +1231,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="41" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="41" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="41" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="42" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="42" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1766,7 +1781,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2114,7 +2129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2124,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2146,137 +2161,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1">
-      <c r="A1" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="V1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="52">
-        <v>1</v>
-      </c>
-      <c r="D2" s="52">
+      <c r="B2" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40">
         <f t="shared" ref="D2:D13" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="40">
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="41">
         <f>60/E2*C2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="40">
         <v>20</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="42">
         <f>D2*F2*G2</f>
         <v>60</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>144.98994521877819</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="3"/>
       <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="11">
         <v>1.7</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="11">
         <v>35</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="18">
         <f>N2+O2</f>
         <v>36.700000000000003</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="6">
         <v>60</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="6">
         <v>3</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="7">
         <f>60/(Q2)</f>
         <v>1</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="8">
         <v>20</v>
       </c>
-      <c r="U2" s="21">
+      <c r="U2" s="9">
         <f>ROUND(R2*S2*T2,0)</f>
         <v>60</v>
       </c>
-      <c r="V2" s="39">
+      <c r="V2" s="27">
         <f>R2/W$2</f>
         <v>0.3</v>
       </c>
@@ -2286,1591 +2301,1594 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="52">
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1</v>
+      </c>
+      <c r="D3" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="40">
         <f>VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="41">
         <f>60/E3*C3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="40">
         <v>20</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="42">
         <f>D3*F3*G3</f>
         <v>60</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="3">
         <v>94.782608695652172</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="3"/>
       <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="11">
         <v>1.5</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="11">
         <v>15</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="18">
         <f t="shared" ref="P3:P7" si="1">N3+O3</f>
         <v>16.5</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="6">
         <v>99</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="6">
         <v>2</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="7">
         <f t="shared" ref="S3:S5" si="2">60/(Q3)</f>
         <v>0.60606060606060608</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="8">
         <v>20</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="9">
         <f t="shared" ref="U3:U5" si="3">ROUND(R3*S3*T3,0)</f>
         <v>24</v>
       </c>
-      <c r="V3" s="39">
+      <c r="V3" s="27">
         <f>R3/W$2</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52">
+      <c r="B4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
         <f t="shared" ref="D4" si="4">VLOOKUP(A4,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="40">
         <f>VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="41">
         <f>60/E4*C4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="40">
         <v>20</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <f>D4*F4*G4</f>
         <v>60</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="3">
         <v>104.21052631578948</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="3"/>
       <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="23">
+        <v>54</v>
+      </c>
+      <c r="N4" s="11">
         <v>1.3</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="11">
         <v>20</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="18">
         <f t="shared" si="1"/>
         <v>21.3</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="6">
         <v>38</v>
       </c>
-      <c r="R4" s="18">
-        <v>1</v>
-      </c>
-      <c r="S4" s="19">
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7">
         <f t="shared" si="2"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="8">
         <v>20</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="9">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="27">
         <f t="shared" ref="V4:V5" si="5">R4/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52">
+      <c r="C5" s="40">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="40">
         <f t="shared" ref="E5:E13" si="6">VLOOKUP(A5,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="41">
         <f t="shared" ref="F5:F30" si="7">60/E5*C5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="40">
         <v>20</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="42">
         <f t="shared" ref="H5:H30" si="8">D5*F5*G5</f>
         <v>60</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="3">
         <v>94.782608695652172</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="3"/>
       <c r="M5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="23">
+        <v>57</v>
+      </c>
+      <c r="N5" s="11">
         <v>1.7</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="11">
         <v>20</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="18">
         <f t="shared" si="1"/>
         <v>21.7</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="6">
         <v>69</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="7">
         <f t="shared" si="2"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="8">
         <v>20</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="9">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="V5" s="39">
+      <c r="V5" s="27">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="D6" s="52">
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="40">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="41">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="40">
         <v>20</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="42">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="3">
         <v>60</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="3"/>
       <c r="M6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="11">
         <v>1.3</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="11">
         <v>10</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="18">
         <f t="shared" si="1"/>
         <v>11.3</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="6">
         <v>90</v>
       </c>
-      <c r="R6" s="18">
-        <v>1</v>
-      </c>
-      <c r="S6" s="19">
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
         <f>60/(Q6)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="8">
         <v>20</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="9">
         <f>ROUND(R6*S6*T6,0)</f>
         <v>13</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="27">
         <f>R6/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="52">
+      <c r="C7" s="40">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="40">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="41">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="40">
         <v>20</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="42">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="3">
         <v>24.242424242424242</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="3"/>
       <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="23">
+        <v>58</v>
+      </c>
+      <c r="N7" s="11">
         <v>1.4</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="19">
         <v>15</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="18">
         <f t="shared" si="1"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="6">
         <v>95</v>
       </c>
-      <c r="R7" s="32">
-        <v>1</v>
-      </c>
-      <c r="S7" s="19">
+      <c r="R7" s="20">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
         <f>60/(Q7)</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="8">
         <v>20</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="9">
         <f>ROUND(R7*S7*T7,0)</f>
         <v>13</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="27">
         <f>R7/W$2</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="52">
-        <v>1</v>
-      </c>
-      <c r="D8" s="52">
+      <c r="C8" s="40">
+        <v>1</v>
+      </c>
+      <c r="D8" s="40">
         <f t="shared" ref="D8" si="9">VLOOKUP(A8,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="40">
         <f t="shared" ref="E8" si="10">VLOOKUP(A8,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="41">
         <f>60/E8*C8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="40">
         <v>20</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="42">
         <f t="shared" ref="H8" si="11">D8*F8*G8</f>
         <v>60</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="3">
         <v>97.575757575757578</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="52">
-        <v>1</v>
-      </c>
-      <c r="D9" s="52">
+      <c r="C9" s="40">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40">
         <f>VLOOKUP(A9,$M$1:$W$8,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="40">
         <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="41">
         <f t="shared" ref="F9" si="12">60/E9*C9</f>
         <v>1</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="40">
         <v>20</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="42">
         <f>D9*F9*G9</f>
         <v>60</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="3">
         <v>176.56889258719926</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="52">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52">
+      <c r="B10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="40">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40">
         <f t="shared" ref="D10" si="13">VLOOKUP(A10,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="42">
         <f t="shared" ref="E10" si="14">VLOOKUP(A10,$M$1:$W$8,5,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="41">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="40">
         <v>20</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="42">
         <f t="shared" ref="H10" si="15">D10*F10*G10</f>
         <v>24.242424242424242</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3">
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="52">
-        <v>1</v>
-      </c>
-      <c r="D11" s="52">
+      <c r="B11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="40">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="42">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="41">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="40">
         <v>20</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="42">
         <f t="shared" si="8"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="3">
         <v>107.4141876430206</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="52">
-        <v>1</v>
-      </c>
-      <c r="D12" s="52">
+      <c r="C12" s="40">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="42">
         <f>VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="41">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="40">
         <v>20</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="42">
         <f t="shared" si="8"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3">
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="52">
-        <v>1</v>
-      </c>
-      <c r="D13" s="52">
+      <c r="C13" s="40">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="42">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="41">
         <f t="shared" si="7"/>
         <v>0.60606060606060608</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="40">
         <v>20</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="42">
         <f t="shared" si="8"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="3">
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="52">
-        <v>1</v>
-      </c>
-      <c r="D14" s="52">
+      <c r="A14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="40">
         <f t="shared" ref="D14:D30" si="16">VLOOKUP(A14,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="42">
         <f t="shared" ref="E14:E30" si="17">VLOOKUP(A14,$M$1:$W$8,5,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="41">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="40">
         <v>20</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="42">
         <f t="shared" ref="H14" si="18">D14*F14*G14</f>
         <v>31.578947368421055</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="3">
         <v>999.30379307953683</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="52">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52">
+      <c r="A15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="42">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="41">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="40">
         <v>20</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="42">
         <f t="shared" si="8"/>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="52">
-        <v>1</v>
-      </c>
-      <c r="D16" s="52">
+      <c r="A16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="42">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="41">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="40">
         <v>20</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="42">
         <f t="shared" si="8"/>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="52">
-        <v>1</v>
-      </c>
-      <c r="D17" s="52">
+      <c r="A17" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="42">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="41">
         <f t="shared" si="7"/>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="40">
         <v>20</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="42">
         <f t="shared" si="8"/>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="52">
-        <v>1</v>
-      </c>
-      <c r="D18" s="52">
+      <c r="C18" s="40">
+        <v>1</v>
+      </c>
+      <c r="D18" s="40">
         <f t="shared" ref="D18" si="19">VLOOKUP(A18,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="42">
         <f t="shared" ref="E18" si="20">VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="41">
         <f t="shared" ref="F18" si="21">60/E18*C18</f>
         <v>1.5789473684210527</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="40">
         <v>20</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="42">
         <f t="shared" ref="H18" si="22">D18*F18*G18</f>
         <v>31.578947368421055</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="52">
-        <v>1</v>
-      </c>
-      <c r="D19" s="52">
+      <c r="A19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40">
         <f t="shared" ref="D19" si="23">VLOOKUP(A19,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="42">
         <f t="shared" ref="E19" si="24">VLOOKUP(A19,$M$1:$W$8,5,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="41">
         <f t="shared" ref="F19" si="25">60/E19*C19</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="40">
         <v>20</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="42">
         <f t="shared" ref="H19" si="26">D19*F19*G19</f>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="52">
-        <v>1</v>
-      </c>
-      <c r="D20" s="52">
+      <c r="A20" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="40">
+        <v>1</v>
+      </c>
+      <c r="D20" s="40">
         <f t="shared" ref="D20:D22" si="27">VLOOKUP(A20,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="40">
         <f t="shared" ref="E20:E22" si="28">VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="41">
         <f t="shared" ref="F20:F22" si="29">60/E20*C20</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="40">
         <v>20</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="42">
         <f t="shared" ref="H20:H22" si="30">D20*F20*G20</f>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="52">
-        <v>1</v>
-      </c>
-      <c r="D21" s="52">
+      <c r="A21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40">
         <f t="shared" ref="D21" si="31">VLOOKUP(A21,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="40">
         <f t="shared" ref="E21" si="32">VLOOKUP(A21,$M$1:$W$8,5,FALSE)</f>
         <v>95</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="41">
         <f t="shared" ref="F21" si="33">60/E21*C21</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="40">
         <v>20</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="42">
         <f t="shared" ref="H21" si="34">D21*F21*G21</f>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="52">
-        <v>1</v>
-      </c>
-      <c r="D22" s="52">
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="40">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="40">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="41">
         <f t="shared" si="29"/>
         <v>0.63157894736842102</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="40">
         <v>20</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="42">
         <f t="shared" si="30"/>
         <v>12.631578947368421</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="52">
-        <v>1</v>
-      </c>
-      <c r="D23" s="52">
+      <c r="A23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1</v>
+      </c>
+      <c r="D23" s="40">
         <f t="shared" ref="D23:D24" si="35">VLOOKUP(A23,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="40">
         <f t="shared" ref="E23:E24" si="36">VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="41">
         <f t="shared" ref="F23:F24" si="37">60/E23*C23</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="40">
         <v>20</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="42">
         <f t="shared" ref="H23:H24" si="38">D23*F23*G23</f>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52">
-        <v>1</v>
-      </c>
-      <c r="D24" s="52">
+      <c r="A24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1</v>
+      </c>
+      <c r="D24" s="40">
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="40">
         <f t="shared" si="36"/>
         <v>69</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="41">
         <f t="shared" si="37"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="40">
         <v>20</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="42">
         <f t="shared" si="38"/>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="52">
-        <v>1</v>
-      </c>
-      <c r="D25" s="52">
+      <c r="A25" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="40">
+        <v>1</v>
+      </c>
+      <c r="D25" s="40">
         <f t="shared" ref="D25" si="39">VLOOKUP(A25,$M$1:$W$8,6,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="40">
         <f t="shared" ref="E25" si="40">VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
         <v>69</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="41">
         <f t="shared" ref="F25" si="41">60/E25*C25</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="40">
         <v>20</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="42">
         <f t="shared" ref="H25" si="42">D25*F25*G25</f>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="52">
-        <v>1</v>
-      </c>
-      <c r="D26" s="52">
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="40">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="40">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="41">
         <f t="shared" si="7"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="40">
         <v>20</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="42">
         <f t="shared" si="8"/>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="52">
-        <v>1</v>
-      </c>
-      <c r="D27" s="52">
+      <c r="C27" s="40">
+        <v>1</v>
+      </c>
+      <c r="D27" s="40">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="40">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="41">
         <f t="shared" si="7"/>
         <v>0.86956521739130432</v>
       </c>
-      <c r="G27" s="52">
+      <c r="G27" s="40">
         <v>20</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="42">
         <f t="shared" si="8"/>
         <v>34.782608695652172</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="52">
-        <v>1</v>
-      </c>
-      <c r="D28" s="52">
+      <c r="B28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1</v>
+      </c>
+      <c r="D28" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="40">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="41">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="40">
         <v>20</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="42">
         <f t="shared" ref="H28" si="43">D28*F28*G28</f>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="52">
-        <v>1</v>
-      </c>
-      <c r="D29" s="52">
+      <c r="B29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1</v>
+      </c>
+      <c r="D29" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="40">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="41">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G29" s="52">
+      <c r="G29" s="40">
         <v>20</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="42">
         <f t="shared" si="8"/>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="52">
-        <v>1</v>
-      </c>
-      <c r="D30" s="52">
+      <c r="C30" s="40">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="40">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="41">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G30" s="52">
+      <c r="G30" s="40">
         <v>20</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="42">
         <f t="shared" si="8"/>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="52">
-        <v>1</v>
-      </c>
-      <c r="D31" s="52">
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+      <c r="D31" s="40">
         <f t="shared" ref="D31" si="44">VLOOKUP(A31,$M$1:$W$8,6,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="40">
         <f t="shared" ref="E31" si="45">VLOOKUP(A31,$M$1:$W$8,5,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="41">
         <f t="shared" ref="F31" si="46">60/E31*C31</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="40">
         <v>20</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="42">
         <f t="shared" ref="H31" si="47">D31*F31*G31</f>
         <v>13.333333333333332</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1"/>
     <row r="34" spans="1:9">
-      <c r="A34" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="66"/>
+      <c r="A34" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="69"/>
     </row>
     <row r="35" spans="1:9" ht="108">
-      <c r="A35" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="36">
+      <c r="A36" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="36">
-      <c r="A36" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="43">
+      <c r="B36" s="31">
         <v>520</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="15">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
         <v>529.7066777615978</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="16">
         <f t="shared" ref="D36:D38" si="48">1-B36/C36</f>
         <v>1.8324627891450618E-2</v>
       </c>
-      <c r="E36" s="63" t="str">
+      <c r="E36" s="51" t="str">
         <f>VLOOKUP(A36,Соответствие!A2:B13,2,FALSE)</f>
         <v>homePage</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="10">
         <f>C36/3</f>
         <v>176.56889258719926</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="10">
         <f>VLOOKUP(E36,SummaryReport!A:J,8,FALSE)</f>
         <v>178</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="13">
         <f t="shared" ref="H36:H47" si="49">1-F36/G36</f>
         <v>8.0399292853974291E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="43">
+      <c r="A37" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="31">
         <v>422</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="15">
         <f t="shared" ref="C37:C47" si="50">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
         <v>434.96983565633457</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="16">
         <f t="shared" si="48"/>
         <v>2.981778181644279E-2</v>
       </c>
-      <c r="E37" s="63" t="str">
+      <c r="E37" s="51" t="str">
         <f>VLOOKUP(A37,Соответствие!A3:B14,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="10">
         <f t="shared" ref="F37:F47" si="51">C37/3</f>
         <v>144.98994521877819</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="10">
         <f>VLOOKUP(E37,SummaryReport!A:J,8,FALSE)</f>
         <v>146</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="13">
         <f t="shared" si="49"/>
         <v>6.9181834330260816E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="54">
-      <c r="A38" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="43">
+      <c r="A38" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="31">
         <v>305</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="15">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A38)*3</f>
         <v>322.24256292906182</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="16">
         <f t="shared" si="48"/>
         <v>5.3508024428348344E-2</v>
       </c>
-      <c r="E38" s="63" t="str">
+      <c r="E38" s="51" t="str">
         <f>VLOOKUP(A38,Соответствие!A4:B15,2,FALSE)</f>
         <v>clickToFlights</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="10">
         <f t="shared" si="51"/>
         <v>107.41418764302061</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="10">
         <f>VLOOKUP(E38,SummaryReport!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
-      <c r="H38" s="25"/>
+      <c r="H38" s="13">
+        <f t="shared" si="49"/>
+        <v>-3.8709125515945519E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="36">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="31">
         <v>282</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="15">
         <f t="shared" si="50"/>
         <v>284.3478260869565</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="12">
         <f t="shared" ref="D39:D48" si="52">1-B39/C39</f>
         <v>8.2568807339449268E-3</v>
       </c>
-      <c r="E39" s="63" t="str">
+      <c r="E39" s="51" t="str">
         <f>VLOOKUP(A39,Соответствие!A5:B16,2,FALSE)</f>
         <v>searchTicket</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="10">
         <f t="shared" si="51"/>
         <v>94.782608695652172</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="10">
         <f>VLOOKUP(E39,SummaryReport!A:J,8,FALSE)</f>
         <v>94</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="13">
         <f t="shared" si="49"/>
         <v>-8.3256244218317121E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="36">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="31">
         <v>270</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="15">
         <f t="shared" si="50"/>
         <v>284.3478260869565</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="12">
         <f t="shared" si="52"/>
         <v>5.0458715596330195E-2</v>
       </c>
-      <c r="E40" s="63" t="str">
+      <c r="E40" s="51" t="str">
         <f>VLOOKUP(A40,Соответствие!A6:B17,2,FALSE)</f>
         <v>departureTime</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="10">
         <f t="shared" si="51"/>
         <v>94.782608695652172</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="10">
         <f>VLOOKUP(E40,SummaryReport!A:J,8,FALSE)</f>
         <v>94</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="13">
         <f t="shared" si="49"/>
         <v>-8.3256244218317121E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="31">
         <v>175</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="15">
         <f t="shared" si="50"/>
         <v>180</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="12">
         <f t="shared" si="52"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E41" s="63" t="str">
+      <c r="E41" s="51" t="str">
         <f>VLOOKUP(A41,Соответствие!A7:B18,2,FALSE)</f>
         <v>paymentDetails</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="10">
         <f t="shared" si="51"/>
         <v>60</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="10">
         <f>VLOOKUP(E41,SummaryReport!A:J,8,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="13">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="36">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="31">
         <v>280</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="15">
         <f t="shared" si="50"/>
         <v>292.72727272727275</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="12">
         <f t="shared" si="52"/>
         <v>4.3478260869565299E-2</v>
       </c>
-      <c r="E42" s="63" t="str">
+      <c r="E42" s="51" t="str">
         <f>VLOOKUP(A42,Соответствие!A8:B19,2,FALSE)</f>
         <v>clickItinerary</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="10">
         <f t="shared" si="51"/>
         <v>97.575757575757578</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="10">
         <f>VLOOKUP(E42,SummaryReport!A:J,8,FALSE)</f>
         <v>98</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="13">
         <f t="shared" si="49"/>
         <v>4.3290043290042934E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="36">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="31">
         <v>73</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="15">
         <f t="shared" si="50"/>
         <v>72.72727272727272</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="12">
         <f t="shared" si="52"/>
         <v>-3.7500000000001421E-3</v>
       </c>
-      <c r="E43" s="63" t="str">
+      <c r="E43" s="51" t="str">
         <f>VLOOKUP(A43,Соответствие!A9:B20,2,FALSE)</f>
         <v>deleteTicket</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="10">
         <f t="shared" si="51"/>
         <v>24.242424242424239</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="10">
         <f>VLOOKUP(E43,SummaryReport!A:J,8,FALSE)</f>
         <v>23</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="13">
         <f t="shared" si="49"/>
         <v>-5.4018445322792985E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="31">
         <v>326</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="15">
         <f t="shared" si="50"/>
         <v>312.63157894736844</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="12">
         <f t="shared" si="52"/>
         <v>-4.2760942760942777E-2</v>
       </c>
-      <c r="E44" s="63" t="str">
+      <c r="E44" s="51" t="str">
         <f>VLOOKUP(A44,Соответствие!A10:B21,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="10">
         <f t="shared" si="51"/>
         <v>104.21052631578948</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="10">
         <f>VLOOKUP(E44,SummaryReport!A:J,8,FALSE)</f>
         <v>104</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="13">
         <f t="shared" si="49"/>
         <v>-2.0242914979757831E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="54">
-      <c r="A45" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="43">
+      <c r="A45" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="31">
         <v>97</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="15">
         <f t="shared" si="50"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="12">
         <f t="shared" si="52"/>
         <v>-2.3888888888888848E-2</v>
       </c>
-      <c r="E45" s="63" t="str">
+      <c r="E45" s="51" t="str">
         <f>VLOOKUP(A45,Соответствие!A11:B22,2,FALSE)</f>
         <v>clickToRegProfile</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="10">
         <f t="shared" si="51"/>
         <v>31.578947368421055</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="10">
         <f>VLOOKUP(E45,SummaryReport!A:J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="13">
         <f t="shared" si="49"/>
         <v>1.3157894736842035E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="36">
-      <c r="A46" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="43">
+      <c r="A46" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="31">
         <v>97</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="15">
         <f t="shared" si="50"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="12">
         <f t="shared" si="52"/>
         <v>-2.3888888888888848E-2</v>
       </c>
-      <c r="E46" s="63" t="str">
+      <c r="E46" s="51" t="str">
         <f>VLOOKUP(A46,Соответствие!A12:B23,2,FALSE)</f>
         <v>regProfile</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="10">
         <f t="shared" si="51"/>
         <v>31.578947368421055</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="10">
         <f>VLOOKUP(E46,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="13">
         <f t="shared" si="49"/>
         <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="54">
-      <c r="A47" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="43">
+      <c r="A47" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="31">
         <v>97</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="15">
         <f t="shared" si="50"/>
         <v>94.736842105263165</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="12">
         <f t="shared" si="52"/>
         <v>-2.3888888888888848E-2</v>
       </c>
-      <c r="E47" s="63" t="str">
+      <c r="E47" s="51" t="str">
         <f>VLOOKUP(A47,Соответствие!A13:B24,2,FALSE)</f>
         <v>saveProfile</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="10">
         <f t="shared" si="51"/>
         <v>31.578947368421055</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="10">
         <f>VLOOKUP(E47,SummaryReport!A:J,8,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="13">
         <f t="shared" si="49"/>
         <v>-1.8675721561969505E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.600000000000001" thickBot="1">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="34">
         <f>SUM(B36:B47)</f>
         <v>2944</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="14">
         <f>SUM(C36:C47)</f>
         <v>2997.9113792386111</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="12">
         <f t="shared" si="52"/>
         <v>1.7982979621066431E-2</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="35"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="C50" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="33">
+      <c r="C50" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="21">
         <f>1-B52/H52</f>
         <v>0.22499999999999987</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="C51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" s="33">
+        <v>65</v>
+      </c>
+      <c r="I51" s="21">
         <f>1-B53/H53</f>
         <v>0.16666666666666663</v>
       </c>
@@ -3879,21 +3897,21 @@
       <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="24">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="24">
         <v>45</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="24">
         <f>60/C52</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="24">
         <v>20</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="22">
         <f>B52/(D52*E52)</f>
         <v>1.5500000000000003</v>
       </c>
@@ -3905,30 +3923,30 @@
         <f>G52*D52*E52</f>
         <v>53.333333333333329</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="21">
         <f>1-B54/H54</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="36">
+        <v>59</v>
+      </c>
+      <c r="B53" s="24">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="24">
         <v>20</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="24">
         <f t="shared" ref="D53:D56" si="53">60/C53</f>
         <v>3</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="24">
         <v>20</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="22">
         <f>B53/(D53*E53)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3940,30 +3958,30 @@
         <f t="shared" ref="H53:H56" si="55">G53*D53*E53</f>
         <v>60</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="21">
         <f>1-B55/H55</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="37">
+        <v>71</v>
+      </c>
+      <c r="B54" s="25">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="25">
         <v>30</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="24">
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="24">
         <v>20</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="22">
         <f>B54/(D54*E54)</f>
         <v>0.25</v>
       </c>
@@ -3974,30 +3992,30 @@
         <f t="shared" si="55"/>
         <v>40</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="21">
         <f>1-B56/H56</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="36">
+        <v>60</v>
+      </c>
+      <c r="B55" s="24">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="24">
         <v>20</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="24">
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="24">
         <v>20</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="22">
         <f>B55/(D55*E55)</f>
         <v>0.11111111111111112</v>
       </c>
@@ -4011,23 +4029,23 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="36">
+        <v>61</v>
+      </c>
+      <c r="B56" s="24">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="24">
         <v>30</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="24">
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="24">
         <v>20</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="22">
         <f>B56/(D56*E56)</f>
         <v>1</v>
       </c>
@@ -4053,7 +4071,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4064,127 +4082,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
-      <c r="A1" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>84</v>
+      <c r="A1" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="58" t="str">
+      <c r="A2" s="46" t="str">
         <f>'Автоматизированный расчет'!A36</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>87</v>
+      <c r="B2" s="49" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="57" t="str">
+      <c r="A3" s="45" t="str">
         <f>'Автоматизированный расчет'!A37</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8">
-      <c r="A4" s="57" t="str">
+      <c r="A4" s="45" t="str">
         <f>'Автоматизированный расчет'!A38</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>85</v>
+      <c r="B4" s="50" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8">
-      <c r="A5" s="57" t="str">
+      <c r="A5" s="45" t="str">
         <f>'Автоматизированный расчет'!A39</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>77</v>
+      <c r="B5" s="50" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8">
-      <c r="A6" s="57" t="str">
+      <c r="A6" s="45" t="str">
         <f>'Автоматизированный расчет'!A40</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>78</v>
+      <c r="B6" s="50" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="45" t="str">
         <f>'Автоматизированный расчет'!A41</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>79</v>
+      <c r="B7" s="50" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="57" t="str">
+      <c r="A8" s="45" t="str">
         <f>'Автоматизированный расчет'!A42</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>80</v>
+      <c r="B8" s="50" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="45" t="str">
         <f>'Автоматизированный расчет'!A43</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>81</v>
+      <c r="B9" s="50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="str">
+      <c r="A10" s="45" t="str">
         <f>'Автоматизированный расчет'!A44</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8">
-      <c r="A11" s="57" t="str">
+      <c r="A11" s="45" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Переход на страницу регистрации</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>86</v>
+      <c r="B11" s="50" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8">
-      <c r="A12" s="57" t="str">
+      <c r="A12" s="45" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>88</v>
+      <c r="B12" s="50" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8">
-      <c r="A13" s="57" t="str">
+      <c r="A13" s="45" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v>Переход на следуюущий экран после регистарции</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>89</v>
+      <c r="B13" s="50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="57" t="str">
+      <c r="A14" s="45" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Итого</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4193,10 +4211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4209,22 +4227,22 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" t="s">
-        <v>95</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
@@ -4238,10 +4256,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>0.159</v>
@@ -4270,10 +4288,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>0.155</v>
@@ -4302,10 +4320,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>8.1000000000000003E-2</v>
@@ -4334,10 +4352,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0.253</v>
@@ -4366,10 +4384,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>7.9000000000000001E-2</v>
@@ -4398,10 +4416,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>0.13100000000000001</v>
@@ -4433,7 +4451,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>0.14499999999999999</v>
@@ -4465,7 +4483,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0.127</v>
@@ -4494,10 +4512,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>0.08</v>
@@ -4526,10 +4544,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>7.0999999999999994E-2</v>
@@ -4558,10 +4576,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>0.151</v>
@@ -4590,10 +4608,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>0.08</v>
@@ -4617,6 +4635,838 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>0.159</v>
+      </c>
+      <c r="D19">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="E19">
+        <v>17.484999999999999</v>
+      </c>
+      <c r="F19">
+        <v>6.1970000000000001</v>
+      </c>
+      <c r="G19">
+        <v>15.34</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>0.154</v>
+      </c>
+      <c r="D20">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="E20">
+        <v>16.673999999999999</v>
+      </c>
+      <c r="F20">
+        <v>6.3639999999999999</v>
+      </c>
+      <c r="G20">
+        <v>15.201000000000001</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="E21">
+        <v>11.239000000000001</v>
+      </c>
+      <c r="F21">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="G21">
+        <v>10.153</v>
+      </c>
+      <c r="H21" s="57">
+        <v>472</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D22">
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="E22">
+        <v>12.102</v>
+      </c>
+      <c r="F22">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="G22">
+        <v>11.066000000000001</v>
+      </c>
+      <c r="H22" s="57">
+        <v>400</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.245</v>
+      </c>
+      <c r="E23">
+        <v>5.61</v>
+      </c>
+      <c r="F23">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.155</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <v>0.127</v>
+      </c>
+      <c r="D24">
+        <v>4.2380000000000004</v>
+      </c>
+      <c r="E24">
+        <v>16.553999999999998</v>
+      </c>
+      <c r="F24">
+        <v>6.484</v>
+      </c>
+      <c r="G24">
+        <v>15.22</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D25">
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="E25">
+        <v>16.532</v>
+      </c>
+      <c r="F25">
+        <v>6.62</v>
+      </c>
+      <c r="G25">
+        <v>15.347</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>0.127</v>
+      </c>
+      <c r="D26">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="E26">
+        <v>11.728</v>
+      </c>
+      <c r="F26">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="G26">
+        <v>10.185</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27">
+        <v>0.08</v>
+      </c>
+      <c r="D27">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="E27">
+        <v>11.393000000000001</v>
+      </c>
+      <c r="F27">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="G27">
+        <v>5.1769999999999996</v>
+      </c>
+      <c r="H27" s="57">
+        <v>889</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="E28">
+        <v>5.75</v>
+      </c>
+      <c r="F28">
+        <v>1.998</v>
+      </c>
+      <c r="G28">
+        <v>5.1130000000000004</v>
+      </c>
+      <c r="H28" s="57">
+        <v>471</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D29">
+        <v>2.605</v>
+      </c>
+      <c r="E29">
+        <v>15.813000000000001</v>
+      </c>
+      <c r="F29">
+        <v>4.3369999999999997</v>
+      </c>
+      <c r="G29">
+        <v>10.349</v>
+      </c>
+      <c r="H29" s="57">
+        <v>470</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="E30">
+        <v>6.7380000000000004</v>
+      </c>
+      <c r="F30">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="G30">
+        <v>5.18</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E35">
+        <v>1.141</v>
+      </c>
+      <c r="F35">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.87</v>
+      </c>
+      <c r="H35">
+        <v>292</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="E36">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F36">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.377</v>
+      </c>
+      <c r="H36">
+        <v>322</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37">
+        <v>0.17</v>
+      </c>
+      <c r="D37">
+        <v>0.193</v>
+      </c>
+      <c r="E37">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="F37">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H37">
+        <v>94</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>1.179</v>
+      </c>
+      <c r="D38">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="E38">
+        <v>2.097</v>
+      </c>
+      <c r="F38">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.905</v>
+      </c>
+      <c r="H38">
+        <v>65</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.189</v>
+      </c>
+      <c r="E39">
+        <v>0.251</v>
+      </c>
+      <c r="F39">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H39">
+        <v>284</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <v>0.253</v>
+      </c>
+      <c r="D40">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="F40">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H40">
+        <v>528</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E41">
+        <v>0.66</v>
+      </c>
+      <c r="F41">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.376</v>
+      </c>
+      <c r="H41">
+        <v>434</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.379</v>
+      </c>
+      <c r="F42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H42">
+        <v>313</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.192</v>
+      </c>
+      <c r="E43">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F43">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H43">
+        <v>180</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F44">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.18</v>
+      </c>
+      <c r="H44">
+        <v>95</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D45">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F45">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H45">
+        <v>95</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46">
+        <v>0.161</v>
+      </c>
+      <c r="D46">
+        <v>0.185</v>
+      </c>
+      <c r="E46">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F46">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H46">
+        <v>284</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>0</v>
       </c>
     </row>
@@ -4627,10 +5477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C9:O44"/>
+  <dimension ref="C3:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4644,598 +5494,844 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="1.44140625" customWidth="1"/>
     <col min="12" max="12" width="40.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="5:9">
+      <c r="E3" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="54">
+        <v>520</v>
+      </c>
+      <c r="H6" s="55">
+        <f>176.568892587199*3</f>
+        <v>529.70667776159701</v>
+      </c>
+      <c r="I6" s="56">
+        <f t="shared" ref="I6:I17" si="0">1-G6/H6</f>
+        <v>1.8324627891449063E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="E7" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="54">
+        <v>422</v>
+      </c>
+      <c r="H7" s="55">
+        <f>144.98995*3</f>
+        <v>434.96984999999995</v>
+      </c>
+      <c r="I7" s="56">
+        <f t="shared" si="0"/>
+        <v>2.9817813809393856E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="54">
+        <v>305</v>
+      </c>
+      <c r="H8" s="55">
+        <f>107.4*3</f>
+        <v>322.20000000000005</v>
+      </c>
+      <c r="I8" s="56">
+        <f t="shared" si="0"/>
+        <v>5.338299193047813E-2</v>
+      </c>
+    </row>
     <row r="9" spans="5:9">
-      <c r="E9" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="11" spans="5:9" ht="27.6">
-      <c r="E11" s="1" t="s">
+      <c r="E9" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="54">
+        <v>282</v>
+      </c>
+      <c r="H9" s="55">
+        <f>94.7826086956522*3</f>
+        <v>284.34782608695662</v>
+      </c>
+      <c r="I9" s="56">
+        <f t="shared" si="0"/>
+        <v>8.2568807339452599E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="54">
+        <v>270</v>
+      </c>
+      <c r="H10" s="55">
+        <f>94.7826086956522*3</f>
+        <v>284.34782608695662</v>
+      </c>
+      <c r="I10" s="56">
+        <f t="shared" si="0"/>
+        <v>5.0458715596330639E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="54">
+        <v>175</v>
+      </c>
+      <c r="H11" s="55">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="I11" s="56">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="54">
+        <v>280</v>
+      </c>
+      <c r="H12" s="55">
+        <f>97.5757575757575*3</f>
+        <v>292.72727272727252</v>
+      </c>
+      <c r="I12" s="56">
+        <f t="shared" si="0"/>
+        <v>4.3478260869564522E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="54">
+        <v>73</v>
+      </c>
+      <c r="H13" s="55">
+        <f>24.2424242424242*3</f>
+        <v>72.727272727272606</v>
+      </c>
+      <c r="I13" s="56">
+        <f t="shared" si="0"/>
+        <v>-3.7500000000016964E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="54">
+        <v>326</v>
+      </c>
+      <c r="H14" s="55">
+        <f>104.21052631579*3</f>
+        <v>312.63157894737003</v>
+      </c>
+      <c r="I14" s="56">
+        <f t="shared" si="0"/>
+        <v>-4.2760942760937448E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="54">
+        <v>97</v>
+      </c>
+      <c r="H15" s="55">
+        <f>31.5789473684211*3</f>
+        <v>94.736842105263307</v>
+      </c>
+      <c r="I15" s="56">
+        <f t="shared" si="0"/>
+        <v>-2.3888888888887294E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="54">
+        <v>97</v>
+      </c>
+      <c r="H16" s="55">
+        <f>31.5789473684211*3</f>
+        <v>94.736842105263307</v>
+      </c>
+      <c r="I16" s="56">
+        <f t="shared" si="0"/>
+        <v>-2.3888888888887294E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:19">
+      <c r="E17" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="54">
+        <v>97</v>
+      </c>
+      <c r="H17" s="55">
+        <f>31.5789473684211*3</f>
+        <v>94.736842105263307</v>
+      </c>
+      <c r="I17" s="56">
+        <f t="shared" si="0"/>
+        <v>-2.3888888888887294E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19">
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="5:19">
+      <c r="E20" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="5:19">
+      <c r="L21" s="5"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="5:19">
+      <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="5:9" ht="15.6">
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="S22" s="57"/>
+    </row>
+    <row r="23" spans="5:19">
+      <c r="E23" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="55">
+        <f>G6*5</f>
+        <v>2600</v>
+      </c>
+      <c r="H23" s="63">
+        <v>2860</v>
+      </c>
+      <c r="I23" s="64">
+        <f>1-G23/H23</f>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="S23" s="57"/>
+    </row>
+    <row r="24" spans="5:19">
+      <c r="E24" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4">
-        <v>368</v>
-      </c>
-      <c r="H12" s="3">
-        <f>'Автоматизированный расчет'!Q8+'Автоматизированный расчет'!Q7</f>
+      <c r="G24" s="55">
+        <f t="shared" ref="G24:G34" si="1">G7*5</f>
+        <v>2110</v>
+      </c>
+      <c r="H24" s="63">
+        <v>2387</v>
+      </c>
+      <c r="I24" s="64">
+        <f t="shared" ref="I24:I34" si="2">1-G24/H24</f>
+        <v>0.11604524507750313</v>
+      </c>
+      <c r="S24" s="57"/>
+    </row>
+    <row r="25" spans="5:19">
+      <c r="E25" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="55">
+        <f t="shared" si="1"/>
+        <v>1525</v>
+      </c>
+      <c r="H25" s="63">
+        <v>1721</v>
+      </c>
+      <c r="I25" s="64">
+        <f t="shared" si="2"/>
+        <v>0.11388727484020922</v>
+      </c>
+      <c r="S25" s="57"/>
+    </row>
+    <row r="26" spans="5:19">
+      <c r="E26" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="55">
+        <f t="shared" si="1"/>
+        <v>1410</v>
+      </c>
+      <c r="H26" s="63">
+        <v>1498</v>
+      </c>
+      <c r="I26" s="64">
+        <f t="shared" si="2"/>
+        <v>5.8744993324432615E-2</v>
+      </c>
+      <c r="S26" s="57"/>
+    </row>
+    <row r="27" spans="5:19">
+      <c r="E27" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="55">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="H27" s="63">
+        <v>1498</v>
+      </c>
+      <c r="I27" s="64">
+        <f t="shared" si="2"/>
+        <v>9.8798397863818388E-2</v>
+      </c>
+      <c r="S27" s="57"/>
+    </row>
+    <row r="28" spans="5:19">
+      <c r="E28" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="55">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="H28" s="63">
+        <v>889</v>
+      </c>
+      <c r="I28" s="64">
+        <f t="shared" si="2"/>
+        <v>1.5748031496062964E-2</v>
+      </c>
+      <c r="S28" s="57"/>
+    </row>
+    <row r="29" spans="5:19">
+      <c r="E29" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="55">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="H29" s="63">
+        <v>1552</v>
+      </c>
+      <c r="I29" s="64">
+        <f t="shared" si="2"/>
+        <v>9.7938144329896892E-2</v>
+      </c>
+      <c r="S29" s="57"/>
+    </row>
+    <row r="30" spans="5:19">
+      <c r="E30" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="55">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="H30" s="63">
+        <v>400</v>
+      </c>
+      <c r="I30" s="64">
+        <f t="shared" si="2"/>
+        <v>8.7500000000000022E-2</v>
+      </c>
+      <c r="S30" s="57"/>
+    </row>
+    <row r="31" spans="5:19">
+      <c r="E31" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="55">
+        <f t="shared" si="1"/>
+        <v>1630</v>
+      </c>
+      <c r="H31" s="63">
+        <v>1582</v>
+      </c>
+      <c r="I31" s="64">
+        <f t="shared" si="2"/>
+        <v>-3.0341340075853429E-2</v>
+      </c>
+      <c r="S31" s="57"/>
+    </row>
+    <row r="32" spans="5:19">
+      <c r="E32" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="55">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="H32" s="63">
+        <v>472</v>
+      </c>
+      <c r="I32" s="64">
+        <f t="shared" si="2"/>
+        <v>-2.754237288135597E-2</v>
+      </c>
+      <c r="S32" s="57"/>
+    </row>
+    <row r="33" spans="5:19">
+      <c r="E33" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="55">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="H33" s="63">
+        <v>471</v>
+      </c>
+      <c r="I33" s="64">
+        <f t="shared" si="2"/>
+        <v>-2.9723991507430991E-2</v>
+      </c>
+      <c r="S33" s="57"/>
+    </row>
+    <row r="34" spans="5:19">
+      <c r="E34" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="55">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="H34" s="63">
+        <v>470</v>
+      </c>
+      <c r="I34" s="64">
+        <f t="shared" si="2"/>
+        <v>-3.1914893617021267E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:19" ht="15.6">
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="65">
+        <f>SUM(H23:H34)</f>
+        <v>15800</v>
+      </c>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="5:19" ht="15.6">
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="72">
+        <f>H35/5*3</f>
+        <v>9480</v>
+      </c>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="5:19" ht="15.6">
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="73">
+        <f>H36/2944</f>
+        <v>3.2201086956521738</v>
+      </c>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="5:19" ht="15.6">
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="41" spans="5:19">
+      <c r="E41" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="5:19">
+      <c r="L42" s="44"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="5:19">
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="5:19">
+      <c r="E44" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="71">
+        <v>520</v>
+      </c>
+      <c r="H44" s="63">
+        <v>528</v>
+      </c>
+      <c r="I44" s="66">
+        <f>1-G44/H44</f>
+        <v>1.5151515151515138E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:19">
+      <c r="E45" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="71">
+        <v>422</v>
+      </c>
+      <c r="H45" s="63">
+        <v>434</v>
+      </c>
+      <c r="I45" s="66">
+        <f t="shared" ref="I45:I55" si="3">1-G45/H45</f>
+        <v>2.7649769585253448E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:19">
+      <c r="E46" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="71">
+        <v>305</v>
+      </c>
+      <c r="H46" s="63">
+        <v>322</v>
+      </c>
+      <c r="I46" s="66">
+        <f t="shared" si="3"/>
+        <v>5.2795031055900665E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:19">
+      <c r="E47" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="71">
+        <v>282</v>
+      </c>
+      <c r="H47" s="63">
+        <v>284</v>
+      </c>
+      <c r="I47" s="67">
+        <f t="shared" si="3"/>
+        <v>7.0422535211267512E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="5:19">
+      <c r="E48" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="71">
+        <v>270</v>
+      </c>
+      <c r="H48" s="63">
+        <v>284</v>
+      </c>
+      <c r="I48" s="66">
+        <f t="shared" si="3"/>
+        <v>4.9295774647887369E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
+      <c r="E49" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="71">
+        <v>175</v>
+      </c>
+      <c r="H49" s="63">
+        <v>180</v>
+      </c>
+      <c r="I49" s="66">
+        <f t="shared" si="3"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
+      <c r="E50" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="71">
+        <v>280</v>
+      </c>
+      <c r="H50" s="63">
+        <v>292</v>
+      </c>
+      <c r="I50" s="66">
+        <f t="shared" si="3"/>
+        <v>4.1095890410958957E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
+      <c r="E51" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="71">
+        <v>73</v>
+      </c>
+      <c r="H51" s="63">
+        <v>65</v>
+      </c>
+      <c r="I51" s="66">
+        <f t="shared" si="3"/>
+        <v>-0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9">
+      <c r="E52" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="71">
+        <v>326</v>
+      </c>
+      <c r="H52" s="63">
+        <v>313</v>
+      </c>
+      <c r="I52" s="66">
+        <f t="shared" si="3"/>
+        <v>-4.1533546325878579E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
+      <c r="E53" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="71">
+        <v>97</v>
+      </c>
+      <c r="H53" s="63">
+        <v>94</v>
+      </c>
+      <c r="I53" s="66">
+        <f t="shared" si="3"/>
+        <v>-3.1914893617021267E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="71">
+        <v>97</v>
+      </c>
+      <c r="H54" s="63">
         <v>95</v>
       </c>
-      <c r="I12" s="5">
-        <f>1-G12/H12</f>
-        <v>-2.8736842105263158</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.2">
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="4">
-        <v>251</v>
-      </c>
-      <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.2">
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="I54" s="66">
+        <f t="shared" si="3"/>
+        <v>-2.1052631578947434E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9">
+      <c r="E55" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="4">
-        <v>251</v>
-      </c>
-      <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" ht="15.6">
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="4">
-        <v>175</v>
-      </c>
-      <c r="H15" s="3">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.2">
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="46.8">
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="4">
-        <v>73</v>
-      </c>
-      <c r="H17" s="3">
-        <f>25*3</f>
-        <v>75</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.6">
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="4">
-        <v>326</v>
-      </c>
-      <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9">
-      <c r="E23" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.6">
-      <c r="E26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.6">
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.6">
-      <c r="E28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.6">
-      <c r="E29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.6">
-      <c r="E30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.6">
-      <c r="E31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.6">
-      <c r="E32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15">
-      <c r="E35" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-    </row>
-    <row r="37" spans="5:15">
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.6">
-      <c r="E38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.6">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.6">
-      <c r="E40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.6">
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.6">
-      <c r="E42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.6">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.6">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
-        <v>0</v>
+      <c r="F55" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="71">
+        <v>97</v>
+      </c>
+      <c r="H55" s="63">
+        <v>95</v>
+      </c>
+      <c r="I55" s="66">
+        <f t="shared" si="3"/>
+        <v>-2.1052631578947434E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9">
+      <c r="H56" s="55">
+        <f>SUM(H44:H55)</f>
+        <v>2986</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
